--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanuel.urrutia\Desktop\Iceberg-Lettuce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezekiel.lacy\Desktop\Iceberg-Lettuce\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sound List" sheetId="2" r:id="rId1"/>
+    <sheet name="Tech List" sheetId="3" r:id="rId2"/>
+    <sheet name="Art List" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -284,7 +284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -342,22 +342,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezekiel.lacy\Desktop\Iceberg-Lettuce\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanuel.urrutia\Desktop\Iceberg-Lettuce\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sound List" sheetId="2" r:id="rId1"/>
-    <sheet name="Tech List" sheetId="3" r:id="rId2"/>
-    <sheet name="Art List" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tech Lead Asset List:</t>
   </si>
@@ -32,6 +32,48 @@
   </si>
   <si>
     <t>Art Lead Asset List:</t>
+  </si>
+  <si>
+    <t>Jump/Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death Noise </t>
+  </si>
+  <si>
+    <t>Milestone (+100)</t>
+  </si>
+  <si>
+    <t>Plus Sounds:</t>
+  </si>
+  <si>
+    <t>Three sounds total,</t>
+  </si>
+  <si>
+    <t>Clucking</t>
+  </si>
+  <si>
+    <t>Dog Bark</t>
+  </si>
+  <si>
+    <t>Dog Growl</t>
+  </si>
+  <si>
+    <t>Trap Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feathers </t>
+  </si>
+  <si>
+    <t>Feahter flap</t>
+  </si>
+  <si>
+    <t>Walking On Grass</t>
+  </si>
+  <si>
+    <t>Cow Moos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind  </t>
   </si>
 </sst>
 </file>
@@ -282,17 +324,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -342,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanuel.urrutia\Desktop\Iceberg-Lettuce\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezekiel.lacy\Desktop\Iceberg-Lettuce\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sound List" sheetId="2" r:id="rId1"/>
+    <sheet name="Tech List" sheetId="3" r:id="rId2"/>
+    <sheet name="Art List" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -326,7 +326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -444,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sound List" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Tech Lead Asset List:</t>
   </si>
@@ -74,6 +74,75 @@
   </si>
   <si>
     <t xml:space="preserve">Wind  </t>
+  </si>
+  <si>
+    <t>Trex idle</t>
+  </si>
+  <si>
+    <t>Pterodactyl/ animation</t>
+  </si>
+  <si>
+    <t>13 Cactuses</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Reset Button</t>
+  </si>
+  <si>
+    <t>Trex Logo</t>
+  </si>
+  <si>
+    <t>Trex run animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trex death frame </t>
+  </si>
+  <si>
+    <t>Trex crouch/run animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken run </t>
+  </si>
+  <si>
+    <t>Chicken idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken jump </t>
+  </si>
+  <si>
+    <t>chicken coup</t>
+  </si>
+  <si>
+    <t>chicken nest</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seed </t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>dog enemy animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign </t>
+  </si>
+  <si>
+    <t>chicken death</t>
   </si>
 </sst>
 </file>
@@ -422,10 +491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -435,6 +504,121 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -444,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezekiel.lacy\Desktop\Iceberg-Lettuce\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie.wooten\Desktop\Iceberg-Lettuce\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sound List" sheetId="2" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Tech Lead Asset List:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Sound Lead Asset List:</t>
   </si>
@@ -143,17 +140,98 @@
   </si>
   <si>
     <t>chicken death</t>
+  </si>
+  <si>
+    <t>Tech/Game Design Lead Asset List:</t>
+  </si>
+  <si>
+    <t>Nameing convention:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type-OF-Asset_Descriptive Name </t>
+  </si>
+  <si>
+    <t>ART – Art Assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX: “ART_DinosaurJump” </t>
+  </si>
+  <si>
+    <t>“SOUND_100POINTS”</t>
+  </si>
+  <si>
+    <t>TECH –  Tech Assets</t>
+  </si>
+  <si>
+    <t>SOUND/MUSIC – Sound or Music Assets</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION – Documentation Documents</t>
+  </si>
+  <si>
+    <t>Game Design</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>• Master copy Level</t>
+  </si>
+  <si>
+    <t>• Plus Content Level</t>
+  </si>
+  <si>
+    <t>Game Objects</t>
+  </si>
+  <si>
+    <t>• Dinosaur (Player)</t>
+  </si>
+  <si>
+    <t>• Pterodactyl (Moving Enemy)</t>
+  </si>
+  <si>
+    <t>• Cactus (Spikes)</t>
+  </si>
+  <si>
+    <t>• Ground</t>
+  </si>
+  <si>
+    <t>• Seeds (Coins)</t>
+  </si>
+  <si>
+    <t>• Eggs (Chests)</t>
+  </si>
+  <si>
+    <t>• Background</t>
+  </si>
+  <si>
+    <t>• Walls</t>
+  </si>
+  <si>
+    <t>• Nest (Goal)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,8 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,67 +485,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -473,19 +555,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -493,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -501,122 +694,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -5,25 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephanie.wooten\Desktop\Iceberg-Lettuce\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezekiel.lacy\Desktop\Iceberg-Lettuce\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sound List" sheetId="2" r:id="rId1"/>
     <sheet name="Tech List" sheetId="3" r:id="rId2"/>
     <sheet name="Art List" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>Sound Lead Asset List:</t>
   </si>
@@ -209,6 +207,24 @@
   </si>
   <si>
     <t>• Nest (Goal)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Implementing</t>
   </si>
 </sst>
 </file>
@@ -475,77 +491,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -557,11 +619,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -620,60 +686,93 @@
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -684,159 +783,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>Sound Lead Asset List:</t>
   </si>
@@ -218,13 +218,13 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
     <t>Implementing</t>
+  </si>
+  <si>
+    <t>spiky rocks</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:G27"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -561,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +620,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -716,7 +716,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -740,7 +740,7 @@
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -847,6 +847,9 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -877,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -901,7 +904,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -909,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +936,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +944,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +952,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -973,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,6 +985,14 @@
       </c>
       <c r="B24" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sound List" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>Sound Lead Asset List:</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Dog Growl</t>
   </si>
   <si>
-    <t>Trap Sound</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feathers </t>
   </si>
   <si>
@@ -65,12 +62,6 @@
     <t>Walking On Grass</t>
   </si>
   <si>
-    <t>Cow Moos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind  </t>
-  </si>
-  <si>
     <t>Trex idle</t>
   </si>
   <si>
@@ -221,10 +212,19 @@
     <t>To Do</t>
   </si>
   <si>
-    <t>Implementing</t>
-  </si>
-  <si>
     <t>spiky rocks</t>
+  </si>
+  <si>
+    <t>Implemeting</t>
+  </si>
+  <si>
+    <t>Chicken dying</t>
+  </si>
+  <si>
+    <t>Maybe cut</t>
+  </si>
+  <si>
+    <t>Music</t>
   </si>
 </sst>
 </file>
@@ -491,16 +491,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -508,13 +510,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -522,18 +524,18 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -541,13 +543,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -555,13 +560,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -569,45 +577,46 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +629,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,148 +640,148 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +792,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -800,92 +809,92 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -893,23 +902,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -917,82 +926,85 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -773,7 +773,7 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -913,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sound List" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>Sound Lead Asset List:</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Music</t>
+  </si>
+  <si>
+    <t>Implementing</t>
   </si>
 </sst>
 </file>
@@ -493,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sound List" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Sound Lead Asset List:</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Implementing</t>
+  </si>
+  <si>
+    <t>Cut</t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -555,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -572,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -797,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -972,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -983,7 +986,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sound List" sheetId="2" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +635,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -771,7 +771,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -903,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1002,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/Documentation/Asset Lists.xlsx
+++ b/Documentation/Asset Lists.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>Sound Lead Asset List:</t>
   </si>
@@ -206,18 +206,9 @@
     <t>Progress</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>spiky rocks</t>
   </si>
   <si>
-    <t>Implemeting</t>
-  </si>
-  <si>
     <t>Chicken dying</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
   </si>
   <si>
     <t>Music</t>
-  </si>
-  <si>
-    <t>Implementing</t>
   </si>
   <si>
     <t>Cut</t>
@@ -500,7 +488,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -530,10 +518,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -541,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -552,13 +540,13 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -569,13 +557,13 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -586,43 +574,43 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +789,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -911,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -975,10 +963,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1007,7 +995,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
